--- a/biology/Zoologie/Bleu_argenté/Bleu_argenté.xlsx
+++ b/biology/Zoologie/Bleu_argenté/Bleu_argenté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleu_argent%C3%A9</t>
+          <t>Bleu_argenté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucopsyche lygdamus
 Le Bleu argenté (Glaucopsyche lygdamus) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae, de la sous-famille des Polyommatinae, du genre Glaucopsyche.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleu_argent%C3%A9</t>
+          <t>Bleu_argenté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,87 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Synonymes
-Glaucopsyche  nittanyensis (F. Chermock, 1944), Polyommatus lygdamus (Doubleday, 1841), Glaucopsyche lygdamus boydi (Clark, 1948)[1].
-Nom vernaculaire
-Il se nomme en anglais Silvery Blue.
-Sous-espèces
-Glaucopsyche lygdamus  lygdamus (Doubleday, 1841) dans l'est des États-Unis.
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Glaucopsyche  nittanyensis (F. Chermock, 1944), Polyommatus lygdamus (Doubleday, 1841), Glaucopsyche lygdamus boydi (Clark, 1948).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme en anglais Silvery Blue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénominations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Glaucopsyche lygdamus  lygdamus (Doubleday, 1841) dans l'est des États-Unis.
 Glaucopsyche lygdamus afra (Edwards, 1883).
 Glaucopsyche lygdamus arizonensis McDunnough, 1936 présent en Arizona.
 Glaucopsyche lygdamus columbia (Skinner, 1917).
@@ -530,36 +617,38 @@
 Glaucopsyche lygdamus mildredi Chermock, 1944.
 Glaucopsyche lygdamus orcus (Edwards, 1869) synonyme Glaucopsyche lygdamus  australis (F. Grinnell, 1917) en Californie.
 Glaucopsyche lygdamus oro Scudder, 1876.
-Glaucopsyche lygdamus palosverdesensis (Perkins et Emmel, 1977) en Californie[1].
+Glaucopsyche lygdamus palosverdesensis (Perkins et Emmel, 1977) en Californie.
 Glaucopsyche lygdamus xerces, sous-espèce ou espèce Glaucopsyche xerces, éteinte.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Bleu_argent%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit papillon dont la face supérieure est de coloration bleu clair  brillant bordée de gris, cette bordure est plus large chez les femelles. Son envergure varie entre 18 à 28 mm.
 Le revers est gris beige pâle parsemé de bleu et orné d'une ligne de points noirs cernés de blanc sur les ailes antérieures et postérieures.
@@ -567,72 +656,181 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bleu_argent%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chenille, de couleur dépendant de sa nourriture, est prise en charge par des fourmis[2].
-Période de vol et hivernation
-Il vole en une génération, de mai à juillet et de juin à août dans le nord de son aire de répartition (Terre-Neuve).
-Il hiberne au stade nymphal[2].
-Plantes hôtes
-Ses plantes hôtes sont diverses fabacées, mélilot, gesses, luzernes, lotiers
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille, de couleur dépendant de sa nourriture, est prise en charge par des fourmis.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Bleu_argent%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération, de mai à juillet et de juin à août dans le nord de son aire de répartition (Terre-Neuve).
+Il hiberne au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses fabacées, mélilot, gesses, luzernes, lotiers
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est présent dans presque toute l'Amérique du Nord, tout l'ouest et le centre des États-Unis et dans une grande partie du Canada jusqu’aux îles de l’Arctique au nord[3].
-Biotope
-Son habitat est constitué de prairies fleuries et de bois clairs.
-Protection</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans presque toute l'Amérique du Nord, tout l'ouest et le centre des États-Unis et dans une grande partie du Canada jusqu’aux îles de l’Arctique au nord.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Bleu_argenté</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bleu_argent%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est constitué de prairies fleuries et de bois clairs.
+</t>
         </is>
       </c>
     </row>
